--- a/Tools/Dictionaries.xlsx
+++ b/Tools/Dictionaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\IKP\Robotstat_project\Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\IKP\Robotstat_project_venv\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCE09D4-5D45-4EA5-BD92-D6B19C6DA483}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3286CD44-D2C6-4EAD-BB91-33BB938A7A07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="13" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict_list" sheetId="4" r:id="rId1"/>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F93BB32-2339-4452-8D94-FF1B99C5864F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2889,14 +2889,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6E9873-4D01-4C4C-9C04-997AF590577F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2907,7 +2906,7 @@
     <col min="4" max="16384" width="13.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2946,8 +2945,12 @@
       <c r="F2" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="7">
+        <f>LEN(B2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2966,8 +2969,12 @@
       <c r="F3" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G66" si="0">LEN(B3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2983,8 +2990,12 @@
       <c r="F4" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3000,8 +3011,12 @@
       <c r="E5" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3017,8 +3032,12 @@
       <c r="E6" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3034,8 +3053,12 @@
       <c r="E7" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3051,8 +3074,12 @@
       <c r="E8" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3068,8 +3095,12 @@
       <c r="E9" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3085,8 +3116,12 @@
       <c r="E10" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3102,8 +3137,12 @@
       <c r="E11" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3122,8 +3161,12 @@
       <c r="F12" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3142,8 +3185,12 @@
       <c r="F13" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3162,8 +3209,12 @@
       <c r="F14" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3176,8 +3227,12 @@
       <c r="D15" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3190,8 +3245,12 @@
       <c r="D16" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3210,8 +3269,12 @@
       <c r="F17" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3230,8 +3293,12 @@
       <c r="F18" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -3250,8 +3317,12 @@
       <c r="F19" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3270,8 +3341,12 @@
       <c r="F20" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -3290,8 +3365,12 @@
       <c r="F21" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -3310,8 +3389,12 @@
       <c r="F22" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3330,8 +3413,12 @@
       <c r="F23" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3347,8 +3434,12 @@
       <c r="F24" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3361,8 +3452,12 @@
       <c r="D25" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -3375,8 +3470,12 @@
       <c r="D26" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="7">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3389,8 +3488,12 @@
       <c r="D27" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3403,8 +3506,12 @@
       <c r="D28" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3417,8 +3524,12 @@
       <c r="D29" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -3431,8 +3542,12 @@
       <c r="D30" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3445,8 +3560,12 @@
       <c r="D31" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3459,8 +3578,12 @@
       <c r="D32" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3473,8 +3596,12 @@
       <c r="D33" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3487,8 +3614,12 @@
       <c r="D34" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3501,8 +3632,12 @@
       <c r="D35" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3515,8 +3650,12 @@
       <c r="D36" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3529,8 +3668,12 @@
       <c r="D37" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3543,8 +3686,12 @@
       <c r="D38" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -3557,8 +3704,12 @@
       <c r="D39" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3571,8 +3722,12 @@
       <c r="D40" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3585,8 +3740,12 @@
       <c r="D41" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -3599,8 +3758,12 @@
       <c r="D42" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="7">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3613,8 +3776,12 @@
       <c r="D43" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="7">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -3627,8 +3794,12 @@
       <c r="D44" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -3641,8 +3812,12 @@
       <c r="D45" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3655,8 +3830,12 @@
       <c r="D46" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3669,8 +3848,12 @@
       <c r="D47" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -3683,8 +3866,12 @@
       <c r="D48" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3697,8 +3884,12 @@
       <c r="D49" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="7">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -3711,8 +3902,12 @@
       <c r="D50" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3725,8 +3920,12 @@
       <c r="D51" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -3739,8 +3938,12 @@
       <c r="D52" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -3753,8 +3956,12 @@
       <c r="D53" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -3767,8 +3974,12 @@
       <c r="D54" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -3781,8 +3992,12 @@
       <c r="D55" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -3795,8 +4010,12 @@
       <c r="D56" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -3809,8 +4028,12 @@
       <c r="D57" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -3826,8 +4049,12 @@
       <c r="E58" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -3843,8 +4070,12 @@
       <c r="E59" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -3857,8 +4088,12 @@
       <c r="D60" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -3871,8 +4106,12 @@
       <c r="D61" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -3885,8 +4124,12 @@
       <c r="D62" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -3899,8 +4142,12 @@
       <c r="D63" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -3913,8 +4160,12 @@
       <c r="D64" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -3927,8 +4178,12 @@
       <c r="D65" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -3941,8 +4196,12 @@
       <c r="D66" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -3955,8 +4214,12 @@
       <c r="D67" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="7">
+        <f t="shared" ref="G67:G94" si="1">LEN(B67)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -3972,8 +4235,12 @@
       <c r="E68" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -3989,8 +4256,12 @@
       <c r="E69" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -4006,8 +4277,12 @@
       <c r="E70" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -4023,8 +4298,12 @@
       <c r="E71" s="9" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -4040,8 +4319,12 @@
       <c r="E72" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -4057,8 +4340,12 @@
       <c r="E73" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -4074,8 +4361,12 @@
       <c r="E74" s="9" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -4091,8 +4382,12 @@
       <c r="E75" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -4108,8 +4403,12 @@
       <c r="E76" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -4125,8 +4424,12 @@
       <c r="E77" s="9" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -4139,8 +4442,12 @@
       <c r="D78" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -4153,8 +4460,12 @@
       <c r="D79" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -4167,8 +4478,12 @@
       <c r="D80" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -4184,8 +4499,12 @@
       <c r="E81" s="7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -4198,8 +4517,12 @@
       <c r="D82" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -4212,8 +4535,12 @@
       <c r="D83" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -4226,8 +4553,12 @@
       <c r="D84" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -4243,8 +4574,12 @@
       <c r="E85" s="7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -4257,8 +4592,12 @@
       <c r="D86" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -4274,8 +4613,12 @@
       <c r="E87" s="7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -4291,8 +4634,12 @@
       <c r="E88" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -4308,8 +4655,12 @@
       <c r="E89" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -4325,8 +4676,12 @@
       <c r="E90" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -4342,8 +4697,12 @@
       <c r="E91" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -4359,8 +4718,12 @@
       <c r="E92" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -4376,8 +4739,12 @@
       <c r="E93" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -4393,15 +4760,13 @@
       <c r="E94" s="7" t="s">
         <v>336</v>
       </c>
+      <c r="G94" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E94" xr:uid="{74DAC0A7-6C4A-4A8C-8DF0-72B4966BAC00}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E94" xr:uid="{74DAC0A7-6C4A-4A8C-8DF0-72B4966BAC00}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6862,7 +7227,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6955,7 +7320,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tools/Dictionaries.xlsx
+++ b/Tools/Dictionaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\IKP\Robotstat_project_venv\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3286CD44-D2C6-4EAD-BB91-33BB938A7A07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643AC65-EABB-483B-B4CC-F52F62B4896B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="13" xr2:uid="{CC92391D-3241-4495-9D64-E20C9F896643}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict_list" sheetId="4" r:id="rId1"/>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F93BB32-2339-4452-8D94-FF1B99C5864F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2778,7 +2778,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2889,10 +2889,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6E9873-4D01-4C4C-9C04-997AF590577F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
@@ -2926,7 +2927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -4766,7 +4767,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E94" xr:uid="{74DAC0A7-6C4A-4A8C-8DF0-72B4966BAC00}"/>
+  <autoFilter ref="A1:E94" xr:uid="{74DAC0A7-6C4A-4A8C-8DF0-72B4966BAC00}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6369,7 +6376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F30D73B-D6D3-43B6-944A-B977C0596F12}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
